--- a/SyntaxColors.xlsx
+++ b/SyntaxColors.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jalex\My Drive\Distrib\Settings\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\my\JxTheme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA3C7C6-BDC5-458E-BC7C-C2DD43E95B02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C63D68-6D3E-47DD-AE5C-62C7FF5195A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{70043620-0BF8-4482-A637-10D34939CF4A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="64">
   <si>
     <t>bg</t>
   </si>
@@ -187,13 +187,43 @@
   </si>
   <si>
     <t>#239BD7</t>
+  </si>
+  <si>
+    <t>deltadiff.remove.line</t>
+  </si>
+  <si>
+    <t>#501510</t>
+  </si>
+  <si>
+    <t>deltadiff.add.line</t>
+  </si>
+  <si>
+    <t>deltadiff.remove.word</t>
+  </si>
+  <si>
+    <t>#35421E</t>
+  </si>
+  <si>
+    <t>#A32A21</t>
+  </si>
+  <si>
+    <t>deltadiff.add.word</t>
+  </si>
+  <si>
+    <t>#476E2E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">razor tag </t>
+  </si>
+  <si>
+    <t>#009696</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -338,8 +368,16 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF009696"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -400,6 +438,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF501510"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF35421E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF476E2E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -413,7 +469,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -461,43 +517,55 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -508,16 +576,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF009696"/>
+      <color rgb="FF476E2E"/>
+      <color rgb="FF47702E"/>
+      <color rgb="FF5D7434"/>
+      <color rgb="FF35421E"/>
+      <color rgb="FF41421E"/>
+      <color rgb="FF28411F"/>
+      <color rgb="FF501510"/>
+      <color rgb="FF600000"/>
       <color rgb="FF239BD7"/>
-      <color rgb="FF9FB91F"/>
-      <color rgb="FF598A1E"/>
-      <color rgb="FF184036"/>
-      <color rgb="FFE8E2DF"/>
-      <color rgb="FF4A3E1E"/>
-      <color rgb="FF0000C4"/>
-      <color rgb="FF0000DA"/>
-      <color rgb="FF0000A4"/>
-      <color rgb="FF6D1D62"/>
     </mruColors>
   </colors>
   <extLst>
@@ -828,10 +896,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D47BA4C-3B3B-4CE6-97BD-729C8FA1A40F}">
-  <dimension ref="C2:I38"/>
+  <dimension ref="C2:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -858,7 +926,7 @@
       </c>
     </row>
     <row r="3" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="29" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -881,7 +949,7 @@
       </c>
     </row>
     <row r="4" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C4" s="17"/>
+      <c r="C4" s="29"/>
       <c r="D4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1173,7 +1241,7 @@
       <c r="H19">
         <v>64</v>
       </c>
-      <c r="I19" s="18" t="s">
+      <c r="I19" s="17" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1196,7 +1264,7 @@
       <c r="H21">
         <v>72</v>
       </c>
-      <c r="I21" s="19" t="s">
+      <c r="I21" s="18" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1219,7 +1287,7 @@
       <c r="H22">
         <v>94</v>
       </c>
-      <c r="I22" s="20" t="s">
+      <c r="I22" s="19" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1242,7 +1310,7 @@
       <c r="H24">
         <v>150</v>
       </c>
-      <c r="I24" s="22" t="s">
+      <c r="I24" s="21" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1265,7 +1333,7 @@
       <c r="H25">
         <v>98</v>
       </c>
-      <c r="I25" s="23" t="s">
+      <c r="I25" s="22" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1288,12 +1356,12 @@
       <c r="H26">
         <v>135</v>
       </c>
-      <c r="I26" s="21" t="s">
+      <c r="I26" s="20" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="28" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="29" t="s">
         <v>43</v>
       </c>
       <c r="D28" s="3" t="s">
@@ -1311,12 +1379,12 @@
       <c r="H28">
         <v>196</v>
       </c>
-      <c r="I28" s="25" t="s">
+      <c r="I28" s="24" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="29" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C29" s="17"/>
+      <c r="C29" s="29"/>
       <c r="D29" s="3" t="s">
         <v>2</v>
       </c>
@@ -1332,7 +1400,7 @@
       <c r="H29">
         <v>223</v>
       </c>
-      <c r="I29" s="26" t="s">
+      <c r="I29" s="25" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1355,12 +1423,12 @@
       <c r="H30">
         <v>164</v>
       </c>
-      <c r="I30" s="24" t="s">
+      <c r="I30" s="23" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="32" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="29" t="s">
         <v>47</v>
       </c>
       <c r="D32" s="3" t="s">
@@ -1378,12 +1446,12 @@
       <c r="H32">
         <v>30</v>
       </c>
-      <c r="I32" s="27" t="s">
+      <c r="I32" s="26" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="33" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C33" s="17"/>
+      <c r="C33" s="29"/>
       <c r="D33" s="3" t="s">
         <v>2</v>
       </c>
@@ -1399,7 +1467,7 @@
       <c r="H33">
         <v>223</v>
       </c>
-      <c r="I33" s="27" t="s">
+      <c r="I33" s="26" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1445,7 +1513,7 @@
       <c r="H36">
         <v>211</v>
       </c>
-      <c r="I36" s="28" t="s">
+      <c r="I36" s="27" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1468,7 +1536,113 @@
       <c r="H38">
         <v>215</v>
       </c>
-      <c r="I38" s="29" t="s">
+      <c r="I38" s="28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C40" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E40" t="s">
+        <v>55</v>
+      </c>
+      <c r="F40">
+        <v>80</v>
+      </c>
+      <c r="G40">
+        <v>21</v>
+      </c>
+      <c r="H40">
+        <v>16</v>
+      </c>
+      <c r="I40" s="30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C41" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E41" t="s">
+        <v>58</v>
+      </c>
+      <c r="F41">
+        <v>53</v>
+      </c>
+      <c r="G41">
+        <v>66</v>
+      </c>
+      <c r="H41">
+        <v>30</v>
+      </c>
+      <c r="I41" s="31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C42" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E42" t="s">
+        <v>59</v>
+      </c>
+      <c r="F42">
+        <v>163</v>
+      </c>
+      <c r="G42">
+        <v>42</v>
+      </c>
+      <c r="H42">
+        <v>33</v>
+      </c>
+      <c r="I42" s="30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C43" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F43">
+        <v>71</v>
+      </c>
+      <c r="G43">
+        <v>110</v>
+      </c>
+      <c r="H43">
+        <v>46</v>
+      </c>
+      <c r="I43" s="32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C45" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E45" t="s">
+        <v>63</v>
+      </c>
+      <c r="I45" s="33" t="s">
         <v>7</v>
       </c>
     </row>

--- a/SyntaxColors.xlsx
+++ b/SyntaxColors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\my\JxTheme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C63D68-6D3E-47DD-AE5C-62C7FF5195A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA171056-B940-41F4-BF71-67AA8B56DD1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{70043620-0BF8-4482-A637-10D34939CF4A}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{70043620-0BF8-4482-A637-10D34939CF4A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="70">
   <si>
     <t>bg</t>
   </si>
@@ -217,6 +217,24 @@
   </si>
   <si>
     <t>#009696</t>
+  </si>
+  <si>
+    <t>mergeEditor.AcceptedLine</t>
+  </si>
+  <si>
+    <t>#445426</t>
+  </si>
+  <si>
+    <t>#641A14</t>
+  </si>
+  <si>
+    <t>mergeEditor.NotAcceptedLine</t>
+  </si>
+  <si>
+    <t>#7D2019</t>
+  </si>
+  <si>
+    <t>mergeEditor.SelectionBox</t>
   </si>
 </sst>
 </file>
@@ -377,7 +395,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -456,6 +474,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF641A14"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF445426"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7D2019"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -469,7 +505,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -553,19 +589,28 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -576,16 +621,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF35421E"/>
+      <color rgb="FF7D2019"/>
+      <color rgb="FF445426"/>
+      <color rgb="FF641A14"/>
       <color rgb="FF009696"/>
       <color rgb="FF476E2E"/>
       <color rgb="FF47702E"/>
       <color rgb="FF5D7434"/>
-      <color rgb="FF35421E"/>
       <color rgb="FF41421E"/>
       <color rgb="FF28411F"/>
-      <color rgb="FF501510"/>
-      <color rgb="FF600000"/>
-      <color rgb="FF239BD7"/>
     </mruColors>
   </colors>
   <extLst>
@@ -896,10 +941,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D47BA4C-3B3B-4CE6-97BD-729C8FA1A40F}">
-  <dimension ref="C2:I45"/>
+  <dimension ref="C2:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -926,7 +971,7 @@
       </c>
     </row>
     <row r="3" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="33" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -949,7 +994,7 @@
       </c>
     </row>
     <row r="4" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C4" s="29"/>
+      <c r="C4" s="33"/>
       <c r="D4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1361,7 +1406,7 @@
       </c>
     </row>
     <row r="28" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C28" s="29" t="s">
+      <c r="C28" s="33" t="s">
         <v>43</v>
       </c>
       <c r="D28" s="3" t="s">
@@ -1384,7 +1429,7 @@
       </c>
     </row>
     <row r="29" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C29" s="29"/>
+      <c r="C29" s="33"/>
       <c r="D29" s="3" t="s">
         <v>2</v>
       </c>
@@ -1428,7 +1473,7 @@
       </c>
     </row>
     <row r="32" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C32" s="29" t="s">
+      <c r="C32" s="33" t="s">
         <v>47</v>
       </c>
       <c r="D32" s="3" t="s">
@@ -1451,7 +1496,7 @@
       </c>
     </row>
     <row r="33" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C33" s="29"/>
+      <c r="C33" s="33"/>
       <c r="D33" s="3" t="s">
         <v>2</v>
       </c>
@@ -1559,7 +1604,7 @@
       <c r="H40">
         <v>16</v>
       </c>
-      <c r="I40" s="30" t="s">
+      <c r="I40" s="29" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1582,7 +1627,7 @@
       <c r="H41">
         <v>30</v>
       </c>
-      <c r="I41" s="31" t="s">
+      <c r="I41" s="30" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1605,7 +1650,7 @@
       <c r="H42">
         <v>33</v>
       </c>
-      <c r="I42" s="30" t="s">
+      <c r="I42" s="29" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1628,7 +1673,7 @@
       <c r="H43">
         <v>46</v>
       </c>
-      <c r="I43" s="32" t="s">
+      <c r="I43" s="31" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1642,7 +1687,122 @@
       <c r="E45" t="s">
         <v>63</v>
       </c>
-      <c r="I45" s="33" t="s">
+      <c r="I45" s="32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C47" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E47" t="s">
+        <v>65</v>
+      </c>
+      <c r="F47">
+        <v>68</v>
+      </c>
+      <c r="G47">
+        <v>84</v>
+      </c>
+      <c r="H47">
+        <v>38</v>
+      </c>
+      <c r="I47" s="30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C48" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E48" t="s">
+        <v>66</v>
+      </c>
+      <c r="F48">
+        <v>100</v>
+      </c>
+      <c r="G48">
+        <v>26</v>
+      </c>
+      <c r="H48">
+        <v>20</v>
+      </c>
+      <c r="I48" s="34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C50" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E50" t="s">
+        <v>68</v>
+      </c>
+      <c r="F50">
+        <v>125</v>
+      </c>
+      <c r="G50">
+        <v>32</v>
+      </c>
+      <c r="H50">
+        <v>25</v>
+      </c>
+      <c r="I50" s="35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C51" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E51" t="s">
+        <v>66</v>
+      </c>
+      <c r="F51">
+        <v>100</v>
+      </c>
+      <c r="G51">
+        <v>26</v>
+      </c>
+      <c r="H51">
+        <v>20</v>
+      </c>
+      <c r="I51" s="36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C53" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E53" t="s">
+        <v>68</v>
+      </c>
+      <c r="F53">
+        <v>125</v>
+      </c>
+      <c r="G53">
+        <v>32</v>
+      </c>
+      <c r="H53">
+        <v>25</v>
+      </c>
+      <c r="I53" s="35" t="s">
         <v>7</v>
       </c>
     </row>
